--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_6_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_6_sawtooth_10_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.2100000000005</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02568330264613206</v>
+        <v>0.07744482676076225</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02568330264613206</v>
+        <v>0.07744482676076225</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.409332724255463</v>
+        <v>6.073206112278585</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.9254166925620169, 11.893248755948909]</t>
+          <t>[-0.5472695742418505, 12.693681798799021]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.02299937238403937</v>
+        <v>0.07123838904066093</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02299937238403937</v>
+        <v>0.07123838904066093</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.610105544182156</v>
+        <v>-1.434000250287233</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.754789954499158, -0.46542113386515416]</t>
+          <t>[-2.968632097085851, 0.10063159651138509]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.006876528575388674</v>
+        <v>0.06630850168458191</v>
       </c>
       <c r="S2" t="n">
-        <v>0.006876528575388674</v>
+        <v>0.06630850168458191</v>
       </c>
       <c r="T2" t="n">
-        <v>8.855888537227095</v>
+        <v>9.484362363770115</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.541487035298514, 12.170290039155676]</t>
+          <t>[5.650081247196265, 13.318643480343965]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.557579910966723e-06</v>
+        <v>9.766253963539029e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.557579910966723e-06</v>
+        <v>9.766253963539029e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>6.460220220220346</v>
+        <v>5.810690690690816</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.867407407407441</v>
+        <v>-0.4077677677677753</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.05303303303325</v>
+        <v>12.02914914914941</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.2100000000005</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1089140567190147</v>
+        <v>0.07599240397497653</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1089140567190147</v>
+        <v>0.07599240397497653</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.099114454588584</v>
+        <v>6.358506434937368</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.4004269092007195, 13.598655818377887]</t>
+          <t>[-1.1135990494853782, 13.830611919360114]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1083963799652397</v>
+        <v>0.09342240760797393</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1083963799652397</v>
+        <v>0.09342240760797393</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.207579158136618</v>
+        <v>-1.081789662497386</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.119579491852928, 0.704421175579693]</t>
+          <t>[-3.0566847440333125, 0.8931054190385397]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2098844306612206</v>
+        <v>0.2757764751789915</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2098844306612206</v>
+        <v>0.2757764751789915</v>
       </c>
       <c r="T3" t="n">
-        <v>10.89901089791553</v>
+        <v>10.57418878981332</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.770607229108554, 15.027414566722507]</t>
+          <t>[6.584643374187706, 14.563734205438934]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.177335859971819e-06</v>
+        <v>2.959334910679345e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>3.177335859971819e-06</v>
+        <v>2.959334910679345e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>4.845165165165263</v>
+        <v>4.383503503503597</v>
       </c>
       <c r="Y3" t="n">
-        <v>-2.826346346346401</v>
+        <v>-3.618938938939015</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.51667667667693</v>
+        <v>12.38594594594621</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.2100000000005</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.173535741850649</v>
+        <v>0.07995015734492372</v>
       </c>
       <c r="I4" t="n">
-        <v>0.173535741850649</v>
+        <v>0.07995015734492372</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.701606258364471</v>
+        <v>6.142802739779688</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.8437875188499113, 13.247000035578854]</t>
+          <t>[-0.3467085606095015, 12.632314040168877]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.135021206479758</v>
+        <v>0.06298340929045554</v>
       </c>
       <c r="O4" t="n">
-        <v>0.135021206479758</v>
+        <v>0.06298340929045554</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.685579241565695</v>
+        <v>-1.58494764505431</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.717106086471161, 1.3459476033397708]</t>
+          <t>[-2.993789996213697, -0.17610529389492324]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.268708758252918</v>
+        <v>0.02831859753591659</v>
       </c>
       <c r="S4" t="n">
-        <v>0.268708758252918</v>
+        <v>0.02831859753591659</v>
       </c>
       <c r="T4" t="n">
-        <v>10.42688692869726</v>
+        <v>10.2195985060718</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.08491345831233, 14.768860399082193]</t>
+          <t>[6.324684770720216, 14.114512241423393]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.581252525628685e-05</v>
+        <v>3.545816271932622e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.581252525628685e-05</v>
+        <v>3.545816271932622e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>6.763043043043179</v>
+        <v>6.422342342342478</v>
       </c>
       <c r="Y4" t="n">
-        <v>-5.400340340340446</v>
+        <v>0.7135935935936084</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.9264264264268</v>
+        <v>12.13109109109135</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.2100000000005</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09627743297617108</v>
+        <v>0.05839504112816929</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09627743297617108</v>
+        <v>0.05839504112816929</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.190101859607859</v>
+        <v>7.462490555871049</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.5893870100578464, 13.969590729273564]</t>
+          <t>[-0.649565942822047, 15.574547054564146]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1160174006801915</v>
+        <v>0.07047211424636068</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1160174006801915</v>
+        <v>0.07047211424636068</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.151000375430849</v>
+        <v>-2.012631930227695</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.559869216922121, 0.25786846606042335]</t>
+          <t>[-3.761105919613004, -0.2641579408423853]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0788083504349586</v>
+        <v>0.02502949273132815</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0788083504349586</v>
+        <v>0.02502949273132815</v>
       </c>
       <c r="T5" t="n">
-        <v>11.32014160979621</v>
+        <v>11.52592157725771</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.3503471685540624, 15.289936051038364]</t>
+          <t>[7.174739762245093, 15.877103392270332]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7.495905349763632e-07</v>
+        <v>2.990797226987141e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>7.495905349763632e-07</v>
+        <v>2.990797226987141e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>8.630450450450621</v>
+        <v>8.155355355355528</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.034644644644665</v>
+        <v>1.070390390390417</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.29554554554591</v>
+        <v>15.24032032032064</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.2100000000005</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03330009053302807</v>
+        <v>0.1022658604930162</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03330009053302807</v>
+        <v>0.1022658604930162</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>7.406881312587764</v>
+        <v>6.354634521749102</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.16151516538949195, 14.97527779056502]</t>
+          <t>[-1.1854100571813078, 13.894679100679511]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0548786799009795</v>
+        <v>0.09651727250618092</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0548786799009795</v>
+        <v>0.09651727250618092</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.226474072814388</v>
+        <v>-2.452895164965004</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.798842768304775, -0.6541053773240009]</t>
+          <t>[-5.559895707254008, 0.6541053773240009]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.006539557127761109</v>
+        <v>0.1188182318997735</v>
       </c>
       <c r="S6" t="n">
-        <v>0.006539557127761109</v>
+        <v>0.1188182318997735</v>
       </c>
       <c r="T6" t="n">
-        <v>10.71538893984137</v>
+        <v>10.59033264056075</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.836238676037148, 14.594539203645596]</t>
+          <t>[6.537847102621363, 14.642818178500136]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.381238502906612e-06</v>
+        <v>3.808359848811449e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.381238502906612e-06</v>
+        <v>3.808359848811449e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>8.93327327327345</v>
+        <v>9.939339339339551</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.624464464464515</v>
+        <v>-2.650490490490546</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.24208208208238</v>
+        <v>22.52916916916965</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.2100000000005</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1669000879325307</v>
+        <v>0.1467725149145001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1669000879325307</v>
+        <v>0.1467725149145001</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.53576685197688</v>
+        <v>5.05588746357023</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.2191756181149795, 13.29070932206874]</t>
+          <t>[-1.5309532078364363, 11.642728134976897]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1574253323977517</v>
+        <v>0.1291154472078895</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1574253323977517</v>
+        <v>0.1291154472078895</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.528368862348542</v>
+        <v>-2.742211004935235</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-5.641658879419508, 0.5849211547224238]</t>
+          <t>[-5.15736932120847, -0.32705268866200043]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1088797270355248</v>
+        <v>0.02696124826939617</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1088797270355248</v>
+        <v>0.02696124826939617</v>
       </c>
       <c r="T7" t="n">
-        <v>10.55601017813188</v>
+        <v>9.593399832124881</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.542976209964522, 14.569044146299241]</t>
+          <t>[6.100202718012323, 13.086596946237439]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.390616785337031e-06</v>
+        <v>1.540700505398007e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>3.390616785337031e-06</v>
+        <v>1.540700505398007e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>10.14456456456477</v>
+        <v>11.11167167167191</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.346876876876923</v>
+        <v>1.325245245245275</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.63600600600646</v>
+        <v>20.89809809809854</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.2100000000005</v>
+        <v>25.46000000000054</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09110862198461767</v>
+        <v>0.09362642948592337</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09110862198461767</v>
+        <v>0.09362642948592337</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.294118298107218</v>
+        <v>6.479935514015926</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.8120469058303641, 13.4002835020448]</t>
+          <t>[-0.8199047874391052, 13.779775815470957]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.08117669244996573</v>
+        <v>0.08052980491501227</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08117669244996573</v>
+        <v>0.08052980491501227</v>
       </c>
       <c r="P8" t="n">
         <v>-2.880579450138389</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-4.478106044756623, -1.2830528555201548]</t>
+          <t>[-4.528421843012315, -1.2327370572644627]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0007180902850743021</v>
+        <v>0.0009982735354077121</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0007180902850743021</v>
+        <v>0.0009982735354077121</v>
       </c>
       <c r="T8" t="n">
-        <v>10.16328028504739</v>
+        <v>10.44105934797114</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.277323538264647, 14.049237031830124]</t>
+          <t>[6.438388132482297, 14.443730563459985]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.75471144198336e-06</v>
+        <v>3.933440194003879e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>3.75471144198336e-06</v>
+        <v>3.933440194003879e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>11.55773773773797</v>
+        <v>11.6723523523526</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.147987987988087</v>
+        <v>4.995155155155257</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.96748748748785</v>
+        <v>18.34954954954994</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.88000000000029</v>
+        <v>23.96000000000031</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09124561517665986</v>
+        <v>0.08016064793713551</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09124561517665986</v>
+        <v>0.08016064793713551</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.020839295410866</v>
+        <v>6.184209720110208</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.2675467842276191, 13.309225375049351]</t>
+          <t>[-0.777579920502733, 13.145999360723149]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1030972800380923</v>
+        <v>0.08032374259788266</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1030972800380923</v>
+        <v>0.08032374259788266</v>
       </c>
       <c r="P9" t="n">
-        <v>2.509500438002657</v>
+        <v>2.584974135386196</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.47171060864711656, 5.490711484652431]</t>
+          <t>[0.19497371824080822, 4.9749745525315845]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.09690616062800972</v>
+        <v>0.03465405565016577</v>
       </c>
       <c r="S9" t="n">
-        <v>0.09690616062800972</v>
+        <v>0.03465405565016577</v>
       </c>
       <c r="T9" t="n">
-        <v>9.981823969396945</v>
+        <v>9.737588378453177</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.166490366610571, 13.79715757218332]</t>
+          <t>[5.927242762285392, 13.547933994620962]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.733096151536941e-06</v>
+        <v>5.626742517694794e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>3.733096151536941e-06</v>
+        <v>5.626742517694794e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>14.34234234234252</v>
+        <v>14.10258258258276</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.011891891891928</v>
+        <v>4.988668668668732</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.67279279279311</v>
+        <v>23.2164964964968</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.88000000000029</v>
+        <v>23.96000000000031</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0693270786173944</v>
+        <v>0.1217704737103998</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0693270786173944</v>
+        <v>0.1217704737103998</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.440511431200942</v>
+        <v>6.019530825406544</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.9387381791868066, 13.819761041588691]</t>
+          <t>[-1.4217782981584381, 13.460839948971525]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.08556813009393016</v>
+        <v>0.1102357380339432</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08556813009393016</v>
+        <v>0.1102357380339432</v>
       </c>
       <c r="P10" t="n">
-        <v>2.572395185822273</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.4717106086471161, 4.67307976299743]</t>
+          <t>[1.1509738850989621, 4.67307976299743]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.01752378998144932</v>
+        <v>0.001738160074938877</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01752378998144932</v>
+        <v>0.001738160074938877</v>
       </c>
       <c r="T10" t="n">
-        <v>10.77635177990312</v>
+        <v>10.30130048424756</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.923995504282477, 14.62870805552377]</t>
+          <t>[6.22115744383561, 14.3814435246595]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.086922887694186e-06</v>
+        <v>6.925884731723286e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.086922887694186e-06</v>
+        <v>6.925884731723286e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>14.10330330330348</v>
+        <v>12.85541541541558</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.119399399399476</v>
+        <v>6.139899899899975</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.08720720720748</v>
+        <v>19.57093093093118</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.88000000000029</v>
+        <v>23.96000000000031</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09860976925816101</v>
+        <v>0.1264210264487247</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09860976925816101</v>
+        <v>0.1264210264487247</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.276275246831183</v>
+        <v>5.568826615557604</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.3990632578524167, 13.951613751514783]</t>
+          <t>[-1.425266596868937, 12.562919827984146]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1065305939078223</v>
+        <v>0.1157842652413437</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1065305939078223</v>
+        <v>0.1157842652413437</v>
       </c>
       <c r="P11" t="n">
-        <v>2.673026782333658</v>
+        <v>2.949763672739966</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.5975001042863468, 4.748553460380968]</t>
+          <t>[1.2264475824825016, 4.67307976299743]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01276023539848836</v>
+        <v>0.00123812719928762</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01276023539848836</v>
+        <v>0.00123812719928762</v>
       </c>
       <c r="T11" t="n">
-        <v>10.21476988791723</v>
+        <v>10.61315395008369</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.163439714698083, 14.266100061136381]</t>
+          <t>[6.803102993987062, 14.423204906180315]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.086314853577136e-06</v>
+        <v>1.178109537702809e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>7.086314853577136e-06</v>
+        <v>1.178109537702809e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>13.72084084084101</v>
+        <v>12.71151151151168</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.832552552552625</v>
+        <v>6.139899899899979</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.6091291291294</v>
+        <v>19.28312312312337</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.88000000000029</v>
+        <v>23.96000000000031</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.126760663262344</v>
+        <v>0.09134450782756509</v>
       </c>
       <c r="I12" t="n">
-        <v>0.126760663262344</v>
+        <v>0.09134450782756509</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.873821441150319</v>
+        <v>6.576092087862708</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.6221601755748019, 13.36980305787544]</t>
+          <t>[-1.3153579633704275, 14.467542139095844]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1215143527761542</v>
+        <v>0.1002035557394314</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1215143527761542</v>
+        <v>0.1002035557394314</v>
       </c>
       <c r="P12" t="n">
-        <v>2.786237328408966</v>
+        <v>2.673026782333658</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 4.824027157764507]</t>
+          <t>[0.6352369529781159, 4.710816611689199]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.008466511100338137</v>
+        <v>0.01129718079555841</v>
       </c>
       <c r="S12" t="n">
-        <v>0.008466511100338137</v>
+        <v>0.01129718079555841</v>
       </c>
       <c r="T12" t="n">
-        <v>10.40208035572275</v>
+        <v>10.84281234259418</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.377369473492293, 14.42679123795321]</t>
+          <t>[6.674235705117968, 15.01138898007039]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.626173507826792e-06</v>
+        <v>4.136690901157536e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>4.626173507826792e-06</v>
+        <v>4.136690901157536e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>13.29057057057073</v>
+        <v>13.76680680680698</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.545705705705773</v>
+        <v>5.995995995996074</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.03543543543569</v>
+        <v>21.5376176176179</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.88000000000029</v>
+        <v>23.96000000000031</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09305341178929594</v>
+        <v>0.1223517643631069</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09305341178929594</v>
+        <v>0.1223517643631069</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.80450384609385</v>
+        <v>5.959739813379944</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.9302236796481456, 12.539231371835845]</t>
+          <t>[-1.7794514773019845, 13.698931104061872]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.08942342099041278</v>
+        <v>0.1279054862777846</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08942342099041278</v>
+        <v>0.1279054862777846</v>
       </c>
       <c r="P13" t="n">
-        <v>2.761079429281119</v>
+        <v>2.547237286694427</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.9119738433844247, 4.610185015177814]</t>
+          <t>[-0.5786316799404627, 5.673106253329316]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.004301120387703028</v>
+        <v>0.1077129706982298</v>
       </c>
       <c r="S13" t="n">
-        <v>0.004301120387703028</v>
+        <v>0.1077129706982298</v>
       </c>
       <c r="T13" t="n">
-        <v>10.60977963559148</v>
+        <v>9.23701976195867</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[6.911329795680306, 14.30822947550266]</t>
+          <t>[5.194093684697659, 13.279945839219682]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.664174305726078e-07</v>
+        <v>3.420327495740061e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>6.664174305726078e-07</v>
+        <v>3.420327495740061e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>13.38618618618635</v>
+        <v>14.24648648648667</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.35843843843852</v>
+        <v>2.326446446446477</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.41393393393419</v>
+        <v>26.16652652652686</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.88000000000029</v>
+        <v>23.96000000000031</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.153014696057816</v>
+        <v>0.09316998075902727</v>
       </c>
       <c r="I14" t="n">
-        <v>0.153014696057816</v>
+        <v>0.09316998075902727</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.41610687709391</v>
+        <v>5.764232383277372</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.8205778017758085, 12.652791555963628]</t>
+          <t>[-0.7275282820354185, 12.255993048590163]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1386962634099813</v>
+        <v>0.08044784203367961</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1386962634099813</v>
+        <v>0.08044784203367961</v>
       </c>
       <c r="P14" t="n">
-        <v>2.899447874484274</v>
+        <v>3.012658420559581</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.0000264903318872, 4.79886925863666]</t>
+          <t>[1.452868674633116, 4.572448166486046]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.003577357140255311</v>
+        <v>0.0003277309831815067</v>
       </c>
       <c r="S14" t="n">
-        <v>0.003577357140255311</v>
+        <v>0.0003277309831815067</v>
       </c>
       <c r="T14" t="n">
-        <v>10.60929595860282</v>
+        <v>10.00943168956243</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.7062448606178675, 14.512347056587775]</t>
+          <t>[6.338554596514679, 13.68030878261018]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.866390912264038e-06</v>
+        <v>1.761171098513259e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>1.866390912264038e-06</v>
+        <v>1.761171098513259e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>12.86030030030046</v>
+        <v>12.47167167167183</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.641321321321394</v>
+        <v>6.523643643643723</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.07927927927953</v>
+        <v>18.41969969969994</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.88000000000029</v>
+        <v>23.96000000000031</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2241963885089188</v>
+        <v>0.06308996557909863</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2241963885089188</v>
+        <v>0.06308996557909863</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.100611279770767</v>
+        <v>6.845807911508778</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-2.939680480939323, 13.140903040480858]</t>
+          <t>[0.2535691329220491, 13.438046690095508]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.207904158835619</v>
+        <v>0.0421511427206136</v>
       </c>
       <c r="O15" t="n">
-        <v>0.207904158835619</v>
+        <v>0.0421511427206136</v>
       </c>
       <c r="P15" t="n">
-        <v>2.72334258058935</v>
+        <v>3.138447916198812</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.3647895373537695, 5.81147469853247]</t>
+          <t>[1.8050792624229643, 4.47181656997466]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.08246400907621076</v>
+        <v>2.169444178856672e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08246400907621076</v>
+        <v>2.169444178856672e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>10.62688556946361</v>
+        <v>10.84474082708262</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[6.494369059883068, 14.75940207904416]</t>
+          <t>[6.8220996824707765, 14.867381971694458]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>5.05186761223797e-06</v>
+        <v>2.172409638179218e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>5.05186761223797e-06</v>
+        <v>2.172409638179218e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>13.52960960960978</v>
+        <v>11.99199199199215</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.792792792792817</v>
+        <v>6.907387387387478</v>
       </c>
       <c r="Z15" t="n">
-        <v>25.26642642642674</v>
+        <v>17.07659659659681</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.88000000000029</v>
+        <v>23.96000000000031</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1761756391308347</v>
+        <v>0.1919801547151072</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1761756391308347</v>
+        <v>0.1919801547151072</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>6.139185833230776</v>
+        <v>5.320733970098344</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-1.6587243144180128, 13.937095980879565]</t>
+          <t>[-1.8926726997940602, 12.534140639990747]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1198160009383753</v>
+        <v>0.1443476159518164</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1198160009383753</v>
+        <v>0.1443476159518164</v>
       </c>
       <c r="P16" t="n">
-        <v>3.08813211794312</v>
+        <v>2.798816277972889</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0.735868549489501, 5.440395686396739]</t>
+          <t>[-0.32705268866200043, 5.924685244607778]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.0112332319081323</v>
+        <v>0.07802747816666122</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0112332319081323</v>
+        <v>0.07802747816666122</v>
       </c>
       <c r="T16" t="n">
-        <v>11.21808104205893</v>
+        <v>10.86231334705414</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[6.606543913186751, 15.829618170931116]</t>
+          <t>[6.7680804908881775, 14.956546203220103]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1.284401784285016e-05</v>
+        <v>2.907490642023447e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>1.284401784285016e-05</v>
+        <v>2.907490642023447e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>12.14318318318333</v>
+        <v>13.2871271271273</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.203123123123161</v>
+        <v>1.367087087087105</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.0832432432435</v>
+        <v>25.20716716716749</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.88000000000029</v>
+        <v>23.96000000000031</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1301730393918319</v>
+        <v>0.1960016336536936</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1301730393918319</v>
+        <v>0.1960016336536936</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>5.687375392094026</v>
+        <v>4.773930804930431</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-1.5729081583012956, 12.947658942489348]</t>
+          <t>[-1.758429218348546, 11.306290828209407]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1216262193803417</v>
+        <v>0.1479988761163087</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1216262193803417</v>
+        <v>0.1479988761163087</v>
       </c>
       <c r="P17" t="n">
-        <v>2.849132076228581</v>
+        <v>2.937184723176043</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[0.9245527929483486, 4.773711359508814]</t>
+          <t>[0.03144737390980801, 5.842922072442278]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.004614399774657496</v>
+        <v>0.04767273423852725</v>
       </c>
       <c r="S17" t="n">
-        <v>0.004614399774657496</v>
+        <v>0.04767273423852725</v>
       </c>
       <c r="T17" t="n">
-        <v>10.776757435155</v>
+        <v>10.86185598283731</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[6.85161972531299, 14.701895144997014]</t>
+          <t>[7.161499148117416, 14.562212817557201]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.548452280175638e-06</v>
+        <v>4.215925266670695e-07</v>
       </c>
       <c r="W17" t="n">
-        <v>1.548452280175638e-06</v>
+        <v>4.215925266670695e-07</v>
       </c>
       <c r="X17" t="n">
-        <v>13.05153153153169</v>
+        <v>12.75947947947964</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.736936936937011</v>
+        <v>1.678878878878901</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.36612612612637</v>
+        <v>23.84008008008038</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_6_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_6_sawtooth_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.46000000000054</v>
+        <v>25.31000000000052</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07744482676076225</v>
+        <v>0.07342564902834581</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07744482676076225</v>
+        <v>0.07342564902834581</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.073206112278585</v>
+        <v>6.326606237702285</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.5472695742418505, 12.693681798799021]</t>
+          <t>[-0.4281620741841152, 13.081374549588686]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.07123838904066093</v>
+        <v>0.06569903375424202</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07123838904066093</v>
+        <v>0.06569903375424202</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.434000250287233</v>
+        <v>-1.698158191129618</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.968632097085851, 0.10063159651138509]</t>
+          <t>[-3.169895290108621, -0.22642109215061534]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.06630850168458191</v>
+        <v>0.02470138780729725</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06630850168458191</v>
+        <v>0.02470138780729725</v>
       </c>
       <c r="T2" t="n">
-        <v>9.484362363770115</v>
+        <v>10.42139758694169</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.650081247196265, 13.318643480343965]</t>
+          <t>[6.507100387234196, 14.335694786649178]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.766253963539029e-06</v>
+        <v>2.729134613632667e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>9.766253963539029e-06</v>
+        <v>2.729134613632667e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>5.810690690690816</v>
+        <v>6.840540540540683</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.4077677677677753</v>
+        <v>0.9120720720720907</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.02914914914941</v>
+        <v>12.76900900900928</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.46000000000054</v>
+        <v>25.31000000000052</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07599240397497653</v>
+        <v>0.1507766417332658</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07599240397497653</v>
+        <v>0.1507766417332658</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.358506434937368</v>
+        <v>5.939054629350077</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.1135990494853782, 13.830611919360114]</t>
+          <t>[-2.0121451217036412, 13.890254380403796]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.09342240760797393</v>
+        <v>0.1394625746745921</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09342240760797393</v>
+        <v>0.1394625746745921</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.081789662497386</v>
+        <v>-1.283052855520156</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.0566847440333125, 0.8931054190385397]</t>
+          <t>[-3.2705268866200052, 0.7044211755796939]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2757764751789915</v>
+        <v>0.2001376812060336</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2757764751789915</v>
+        <v>0.2001376812060336</v>
       </c>
       <c r="T3" t="n">
-        <v>10.57418878981332</v>
+        <v>10.0208670770064</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.584643374187706, 14.563734205438934]</t>
+          <t>[5.639759764813075, 14.401974389199726]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.959334910679345e-06</v>
+        <v>3.363413973733742e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.959334910679345e-06</v>
+        <v>3.363413973733742e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>4.383503503503597</v>
+        <v>5.168408408408514</v>
       </c>
       <c r="Y3" t="n">
-        <v>-3.618938938939015</v>
+        <v>-2.837557557557618</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.38594594594621</v>
+        <v>13.17437437437465</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.46000000000054</v>
+        <v>25.31000000000052</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07995015734492372</v>
+        <v>0.03486030142095209</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07995015734492372</v>
+        <v>0.03486030142095209</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.142802739779688</v>
+        <v>7.564400056193412</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.3467085606095015, 12.632314040168877]</t>
+          <t>[0.7355456159128071, 14.393254496474016]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.06298340929045554</v>
+        <v>0.03070603382511461</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06298340929045554</v>
+        <v>0.03070603382511461</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.58494764505431</v>
+        <v>-1.622684493746079</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.993789996213697, -0.17610529389492324]</t>
+          <t>[-2.880579450138389, -0.3647895373537695]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.02831859753591659</v>
+        <v>0.0126234092832691</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02831859753591659</v>
+        <v>0.0126234092832691</v>
       </c>
       <c r="T4" t="n">
-        <v>10.2195985060718</v>
+        <v>11.72103454049594</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.324684770720216, 14.114512241423393]</t>
+          <t>[7.6159342067580535, 15.826134874233835]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.545816271932622e-06</v>
+        <v>7.309634888486016e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>3.545816271932622e-06</v>
+        <v>7.309634888486016e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>6.422342342342478</v>
+        <v>6.536516516516649</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7135935935936084</v>
+        <v>1.469449449449478</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.13109109109135</v>
+        <v>11.60358358358382</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.46000000000054</v>
+        <v>25.31000000000052</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05839504112816929</v>
+        <v>0.1541230162897245</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05839504112816929</v>
+        <v>0.1541230162897245</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>7.462490555871049</v>
+        <v>5.109636044491641</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.649565942822047, 15.574547054564146]</t>
+          <t>[-1.7808972665461145, 12.000169355529396]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.07047211424636068</v>
+        <v>0.14227319594542</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07047211424636068</v>
+        <v>0.14227319594542</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.012631930227695</v>
+        <v>-2.138421425866927</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.761105919613004, -0.2641579408423853]</t>
+          <t>[-5.176237745554355, 0.8993948938205012]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.02502949273132815</v>
+        <v>0.163138265235049</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02502949273132815</v>
+        <v>0.163138265235049</v>
       </c>
       <c r="T5" t="n">
-        <v>11.52592157725771</v>
+        <v>9.155761944779833</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.174739762245093, 15.877103392270332]</t>
+          <t>[5.468541596109933, 12.842982293449733]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.990797226987141e-06</v>
+        <v>9.161384442180065e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>2.990797226987141e-06</v>
+        <v>9.161384442180065e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>8.155355355355528</v>
+        <v>8.614014014014192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.070390390390417</v>
+        <v>-3.622952952953026</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.24032032032064</v>
+        <v>20.85098098098141</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.46000000000054</v>
+        <v>25.31000000000052</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1022658604930162</v>
+        <v>0.0795695846042842</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1022658604930162</v>
+        <v>0.0795695846042842</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.354634521749102</v>
+        <v>6.626729459186157</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.1854100571813078, 13.894679100679511]</t>
+          <t>[-1.0131715994225488, 14.266630517794862]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09651727250618092</v>
+        <v>0.08745950712204165</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09651727250618092</v>
+        <v>0.08745950712204165</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.452895164965004</v>
+        <v>-2.188737224122619</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.559895707254008, 0.6541053773240009]</t>
+          <t>[-4.912079804711969, 0.5346053564667317]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1188182318997735</v>
+        <v>0.1124950033820398</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1188182318997735</v>
+        <v>0.1124950033820398</v>
       </c>
       <c r="T6" t="n">
-        <v>10.59033264056075</v>
+        <v>9.980807265634498</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.537847102621363, 14.642818178500136]</t>
+          <t>[5.910649225135801, 14.050965306133195]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.808359848811449e-06</v>
+        <v>1.126896620706752e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>3.808359848811449e-06</v>
+        <v>1.126896620706752e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>9.939339339339551</v>
+        <v>8.816696696696877</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.650490490490546</v>
+        <v>-2.153503503503551</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.52916916916965</v>
+        <v>19.7868968968973</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.46000000000054</v>
+        <v>25.31000000000052</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1467725149145001</v>
+        <v>0.1572040001889703</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1467725149145001</v>
+        <v>0.1572040001889703</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.05588746357023</v>
+        <v>5.648009471049518</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.5309532078364363, 11.642728134976897]</t>
+          <t>[-1.8712832929347183, 13.167302235033754]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1291154472078895</v>
+        <v>0.1373060165929296</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1291154472078895</v>
+        <v>0.1373060165929296</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.742211004935235</v>
+        <v>-2.603842559732081</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-5.15736932120847, -0.32705268866200043]</t>
+          <t>[-5.691974677675201, 0.4842895582110396]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.02696124826939617</v>
+        <v>0.09636689908025686</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02696124826939617</v>
+        <v>0.09636689908025686</v>
       </c>
       <c r="T7" t="n">
-        <v>9.593399832124881</v>
+        <v>10.0203630366032</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.100202718012323, 13.086596946237439]</t>
+          <t>[6.017514348036455, 14.023211725169952]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.540700505398007e-06</v>
+        <v>7.999593341523337e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.540700505398007e-06</v>
+        <v>7.999593341523337e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>11.11167167167191</v>
+        <v>10.48882882882904</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.325245245245275</v>
+        <v>-1.950820820820862</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.89809809809854</v>
+        <v>22.92847847847895</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.46000000000054</v>
+        <v>25.31000000000052</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09362642948592337</v>
+        <v>0.3289916908499837</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09362642948592337</v>
+        <v>0.3289916908499837</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.479935514015926</v>
+        <v>4.704428652781351</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.8199047874391052, 13.779775815470957]</t>
+          <t>[-2.749790308001767, 12.158647613564469]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.08052980491501227</v>
+        <v>0.2102175076340878</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08052980491501227</v>
+        <v>0.2102175076340878</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.880579450138389</v>
+        <v>3.113290017070967</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-4.528421843012315, -1.2327370572644627]</t>
+          <t>[0.031447373909808896, 6.195132660232124]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0009982735354077121</v>
+        <v>0.04780314079790959</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0009982735354077121</v>
+        <v>0.04780314079790959</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44105934797114</v>
+        <v>11.64834015174627</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.438388132482297, 14.443730563459985]</t>
+          <t>[7.320542202682176, 15.976138100810363]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.933440194003879e-06</v>
+        <v>2.238619326133673e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>3.933440194003879e-06</v>
+        <v>2.238619326133673e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>11.6723523523526</v>
+        <v>12.76900900900927</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.995155155155257</v>
+        <v>0.3546946946947038</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.34954954954994</v>
+        <v>25.18332332332383</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.96000000000031</v>
+        <v>23.9200000000003</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08016064793713551</v>
+        <v>0.1977545576385917</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08016064793713551</v>
+        <v>0.1977545576385917</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.184209720110208</v>
+        <v>5.622976542224955</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.777579920502733, 13.145999360723149]</t>
+          <t>[-2.44384831429097, 13.68980139874088]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.08032374259788266</v>
+        <v>0.1672037849388213</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08032374259788266</v>
+        <v>0.1672037849388213</v>
       </c>
       <c r="P9" t="n">
-        <v>2.584974135386196</v>
+        <v>2.735921530153273</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.19497371824080822, 4.9749745525315845]</t>
+          <t>[-0.37107901213573147, 5.842922072442278]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.03465405565016577</v>
+        <v>0.08290456443257876</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03465405565016577</v>
+        <v>0.08290456443257876</v>
       </c>
       <c r="T9" t="n">
-        <v>9.737588378453177</v>
+        <v>11.78764647291833</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.927242762285392, 13.547933994620962]</t>
+          <t>[7.418128011400636, 16.15716493443602]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.626742517694794e-06</v>
+        <v>2.146324336926853e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.626742517694794e-06</v>
+        <v>2.146324336926853e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>14.10258258258276</v>
+        <v>13.50438438438455</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.988668668668732</v>
+        <v>1.676076076076095</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.2164964964968</v>
+        <v>25.33269269269301</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.96000000000031</v>
+        <v>23.9200000000003</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1217704737103998</v>
+        <v>0.0522402771711683</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1217704737103998</v>
+        <v>0.0522402771711683</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.019530825406544</v>
+        <v>7.020040005615819</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.4217782981584381, 13.460839948971525]</t>
+          <t>[-0.367579362087211, 14.407659373318848]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1102357380339432</v>
+        <v>0.06200733806543401</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1102357380339432</v>
+        <v>0.06200733806543401</v>
       </c>
       <c r="P10" t="n">
-        <v>2.912026824048196</v>
+        <v>2.534658337130504</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.1509738850989621, 4.67307976299743]</t>
+          <t>[0.48428955821103914, 4.585027116049968]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.001738160074938877</v>
+        <v>0.01654202556480122</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001738160074938877</v>
+        <v>0.01654202556480122</v>
       </c>
       <c r="T10" t="n">
-        <v>10.30130048424756</v>
+        <v>10.2684210756694</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.22115744383561, 14.3814435246595]</t>
+          <t>[6.287673218756087, 14.249168932582709]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.925884731723286e-06</v>
+        <v>4.786287721048055e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>6.925884731723286e-06</v>
+        <v>4.786287721048055e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>12.85541541541558</v>
+        <v>14.27059059059077</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.139899899899975</v>
+        <v>6.464864864864945</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.57093093093118</v>
+        <v>22.07631631631659</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.96000000000031</v>
+        <v>23.9200000000003</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1264210264487247</v>
+        <v>0.1880168338060436</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1264210264487247</v>
+        <v>0.1880168338060436</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.568826615557604</v>
+        <v>5.064277344166975</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.425266596868937, 12.562919827984146]</t>
+          <t>[-2.2770166736237076, 12.405571361957657]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1157842652413437</v>
+        <v>0.1715487138280982</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1157842652413437</v>
+        <v>0.1715487138280982</v>
       </c>
       <c r="P11" t="n">
-        <v>2.949763672739966</v>
+        <v>2.610132034514042</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.2264475824825016, 4.67307976299743]</t>
+          <t>[-0.3647895373537695, 5.585053606381853]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.00123812719928762</v>
+        <v>0.08398761581946745</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00123812719928762</v>
+        <v>0.08398761581946745</v>
       </c>
       <c r="T11" t="n">
-        <v>10.61315395008369</v>
+        <v>10.43075117542077</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.803102993987062, 14.423204906180315]</t>
+          <t>[6.557681927033306, 14.303820423808242]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.178109537702809e-06</v>
+        <v>2.213880724521999e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.178109537702809e-06</v>
+        <v>2.213880724521999e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>12.71151151151168</v>
+        <v>13.98326326326344</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.139899899899979</v>
+        <v>2.657777777777815</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.28312312312337</v>
+        <v>25.30874874874907</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.96000000000031</v>
+        <v>23.9200000000003</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09134450782756509</v>
+        <v>0.1844133791893422</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09134450782756509</v>
+        <v>0.1844133791893422</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.576092087862708</v>
+        <v>5.686608230174416</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.3153579633704275, 14.467542139095844]</t>
+          <t>[-2.143462947830564, 13.516679408179396]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1002035557394314</v>
+        <v>0.1504862665439326</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1002035557394314</v>
+        <v>0.1504862665439326</v>
       </c>
       <c r="P12" t="n">
-        <v>2.673026782333658</v>
+        <v>2.937184723176043</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.6352369529781159, 4.710816611689199]</t>
+          <t>[-0.08805264694746207, 5.962422093299548]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.01129718079555841</v>
+        <v>0.05675303115543873</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01129718079555841</v>
+        <v>0.05675303115543873</v>
       </c>
       <c r="T12" t="n">
-        <v>10.84281234259418</v>
+        <v>10.95581594400773</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.674235705117968, 15.01138898007039]</t>
+          <t>[6.628084103823792, 15.283547784191672]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.136690901157536e-06</v>
+        <v>6.616063477071776e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>4.136690901157536e-06</v>
+        <v>6.616063477071776e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>13.76680680680698</v>
+        <v>12.73817817817834</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.995995995996074</v>
+        <v>1.221141141141155</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.5376176176179</v>
+        <v>24.25521521521552</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.96000000000031</v>
+        <v>23.9200000000003</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1223517643631069</v>
+        <v>0.08273462148718225</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1223517643631069</v>
+        <v>0.08273462148718225</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.959739813379944</v>
+        <v>6.07099431432981</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.7794514773019845, 13.698931104061872]</t>
+          <t>[-1.068197130989768, 13.210185759649388]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1279054862777846</v>
+        <v>0.09364289476034537</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1279054862777846</v>
+        <v>0.09364289476034537</v>
       </c>
       <c r="P13" t="n">
-        <v>2.547237286694427</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.5786316799404627, 5.673106253329316]</t>
+          <t>[0.7610264486173475, 4.63534291430566]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1077129706982298</v>
+        <v>0.007397640042946518</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1077129706982298</v>
+        <v>0.007397640042946518</v>
       </c>
       <c r="T13" t="n">
-        <v>9.23701976195867</v>
+        <v>9.80946199306349</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.194093684697659, 13.279945839219682]</t>
+          <t>[6.040742791673495, 13.578181194453485]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.420327495740061e-05</v>
+        <v>4.087112671857795e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>3.420327495740061e-05</v>
+        <v>4.087112671857795e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>14.24648648648667</v>
+        <v>13.64804804804822</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.326446446446477</v>
+        <v>6.273313313313393</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.16652652652686</v>
+        <v>21.02278278278304</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.96000000000031</v>
+        <v>23.9200000000003</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09316998075902727</v>
+        <v>0.1139045987314529</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09316998075902727</v>
+        <v>0.1139045987314529</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.764232383277372</v>
+        <v>6.38000672456004</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.7275282820354185, 12.255993048590163]</t>
+          <t>[-1.5799658872529747, 14.339979336373055]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.08044784203367961</v>
+        <v>0.1134478699118466</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08044784203367961</v>
+        <v>0.1134478699118466</v>
       </c>
       <c r="P14" t="n">
-        <v>3.012658420559581</v>
+        <v>2.748500479717197</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.452868674633116, 4.572448166486046]</t>
+          <t>[0.735868549489501, 4.761132409944892]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.0003277309831815067</v>
+        <v>0.008540557424502326</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0003277309831815067</v>
+        <v>0.008540557424502326</v>
       </c>
       <c r="T14" t="n">
-        <v>10.00943168956243</v>
+        <v>10.79002651160195</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[6.338554596514679, 13.68030878261018]</t>
+          <t>[6.5315896031280625, 15.04846342007584]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.761171098513259e-06</v>
+        <v>6.516026429537192e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>1.761171098513259e-06</v>
+        <v>6.516026429537192e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>12.47167167167183</v>
+        <v>13.45649649649667</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.523643643643723</v>
+        <v>5.794434434434507</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.41969969969994</v>
+        <v>21.11855855855882</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.96000000000031</v>
+        <v>23.9200000000003</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06308996557909863</v>
+        <v>0.101144974268626</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06308996557909863</v>
+        <v>0.101144974268626</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.845807911508778</v>
+        <v>5.98328727590728</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.2535691329220491, 13.438046690095508]</t>
+          <t>[-0.5436906409632147, 12.510265192777775]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0421511427206136</v>
+        <v>0.0714276434979475</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0421511427206136</v>
+        <v>0.0714276434979475</v>
       </c>
       <c r="P15" t="n">
-        <v>3.138447916198812</v>
+        <v>-3.107000542289004</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.8050792624229643, 4.47181656997466]</t>
+          <t>[-4.616474489959776, -1.5975265946182322]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.169444178856672e-05</v>
+        <v>0.0001477920140116051</v>
       </c>
       <c r="S15" t="n">
-        <v>2.169444178856672e-05</v>
+        <v>0.0001477920140116051</v>
       </c>
       <c r="T15" t="n">
-        <v>10.84474082708262</v>
+        <v>9.582468711843989</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[6.8220996824707765, 14.867381971694458]</t>
+          <t>[5.699561992119744, 13.465375431568233]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.172409638179218e-06</v>
+        <v>1.014710624835935e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>2.172409638179218e-06</v>
+        <v>1.014710624835935e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>11.99199199199215</v>
+        <v>11.82830830830845</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.907387387387478</v>
+        <v>6.081761761761833</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.07659659659681</v>
+        <v>17.57485485485508</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.96000000000031</v>
+        <v>23.9200000000003</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1919801547151072</v>
+        <v>0.1336881866167885</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1919801547151072</v>
+        <v>0.1336881866167885</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>5.320733970098344</v>
+        <v>5.963530316486891</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-1.8926726997940602, 12.534140639990747]</t>
+          <t>[-1.9197624175838115, 13.846823050557594]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.1443476159518164</v>
+        <v>0.1346003428372606</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1443476159518164</v>
+        <v>0.1346003428372606</v>
       </c>
       <c r="P16" t="n">
-        <v>2.798816277972889</v>
+        <v>2.685605731897581</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.32705268866200043, 5.924685244607778]</t>
+          <t>[-0.3333421634439615, 5.7045536272391235]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.07802747816666122</v>
+        <v>0.07990489736692918</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07802747816666122</v>
+        <v>0.07990489736692918</v>
       </c>
       <c r="T16" t="n">
-        <v>10.86231334705414</v>
+        <v>10.51731641352048</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[6.7680804908881775, 14.956546203220103]</t>
+          <t>[6.375231611553505, 14.65940121548746]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.907490642023447e-06</v>
+        <v>6.285934127880921e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>2.907490642023447e-06</v>
+        <v>6.285934127880921e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>13.2871271271273</v>
+        <v>13.69593593593611</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.367087087087105</v>
+        <v>2.202842842842871</v>
       </c>
       <c r="Z16" t="n">
-        <v>25.20716716716749</v>
+        <v>25.18902902902934</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.96000000000031</v>
+        <v>23.9200000000003</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1960016336536936</v>
+        <v>0.09071800910487482</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1960016336536936</v>
+        <v>0.09071800910487482</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>4.773930804930431</v>
+        <v>6.126084745721109</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-1.758429218348546, 11.306290828209407]</t>
+          <t>[-0.697830171515406, 12.949999662957623]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1479988761163087</v>
+        <v>0.07727112198106334</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1479988761163087</v>
+        <v>0.07727112198106334</v>
       </c>
       <c r="P17" t="n">
-        <v>2.937184723176043</v>
+        <v>2.987500521431735</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[0.03144737390980801, 5.842922072442278]</t>
+          <t>[1.4277107755052714, 4.5472902673582]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.04767273423852725</v>
+        <v>0.0003621346697932903</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04767273423852725</v>
+        <v>0.0003621346697932903</v>
       </c>
       <c r="T17" t="n">
-        <v>10.86185598283731</v>
+        <v>10.41582754715293</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[7.161499148117416, 14.562212817557201]</t>
+          <t>[6.534581322418832, 14.297073771887034]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>4.215925266670695e-07</v>
+        <v>2.362090295138231e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.215925266670695e-07</v>
+        <v>2.362090295138231e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>12.75947947947964</v>
+        <v>12.54662662662678</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.678878878878901</v>
+        <v>6.608528528528609</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.84008008008038</v>
+        <v>18.48472472472496</v>
       </c>
     </row>
   </sheetData>
